--- a/doc/Sprint-backlog.xlsx
+++ b/doc/Sprint-backlog.xlsx
@@ -11,21 +11,54 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>To be continued</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Design backend interface</t>
+  </si>
+  <si>
+    <t>Implement tabbed GUI</t>
+  </si>
+  <si>
+    <t>Read up on activities and tabs</t>
+  </si>
+  <si>
+    <t>Implement</t>
+  </si>
+  <si>
+    <t>Design backend</t>
+  </si>
+  <si>
+    <t>Design backend architecture</t>
+  </si>
+  <si>
+    <t>Design network handler</t>
+  </si>
+  <si>
+    <t>Choose network library</t>
+  </si>
+  <si>
+    <t>Choose parser library</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Sprint log w39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,7 +68,23 @@
     </font>
     <font>
       <b/>
-      <sz val="72"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,9 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,17 +418,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
